--- a/team_specific_matrix/LeTourneau_A.xlsx
+++ b/team_specific_matrix/LeTourneau_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.125</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.125</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="R6">
-        <v>0.125</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="S6">
-        <v>0.375</v>
+        <v>0.5294117647058824</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03225806451612903</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06451612903225806</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2258064516129032</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1935483870967742</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="R8">
-        <v>0.1612903225806452</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="S8">
-        <v>0.3225806451612903</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.125</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R9">
-        <v>0.125</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S9">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02941176470588235</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08823529411764706</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02941176470588235</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2647058823529412</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="R10">
-        <v>0.05882352941176471</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="S10">
-        <v>0.5294117647058824</v>
+        <v>0.5128205128205128</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.25</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1404,13 +1404,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="I17">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="J17">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.05555555555555555</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="O17">
-        <v>0.05555555555555555</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.4444444444444444</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3333333333333333</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="K18">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.1111111111111111</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.3673469387755102</v>
+        <v>0.2743362831858407</v>
       </c>
       <c r="I19">
-        <v>0.1224489795918367</v>
+        <v>0.09734513274336283</v>
       </c>
       <c r="J19">
-        <v>0.163265306122449</v>
+        <v>0.2654867256637168</v>
       </c>
       <c r="K19">
-        <v>0.06122448979591837</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.08163265306122448</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.02040816326530612</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1836734693877551</v>
+        <v>0.1769911504424779</v>
       </c>
     </row>
   </sheetData>
